--- a/biology/Médecine/Bob_Smalhout/Bob_Smalhout.xlsx
+++ b/biology/Médecine/Bob_Smalhout/Bob_Smalhout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bob Smalhout, né le 13 octobre 1927 à Amsterdam et mort le 2 juillet 2015 à Bosch en Duin, est un médecin, professeur d'université, chroniqueur et homme politique néerlandais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bob Smalhout, né le 13 octobre 1927 à Amsterdam et mort le 2 juillet 2015 à Bosch en Duin, est un médecin, professeur d'université, chroniqueur et homme politique néerlandais.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chef anesthésiste au Centre hospitalier universitaire d'Utrecht (1960-1969) et à l'hôpital militaire de la même ville (1960-1971), il devient professeur titulaire en anesthésiologie à l'université d'Utrecht en 1969[2]. Il devient célèbre en 1972 lorsqu'il s'élève publiquement contre le trop grand nombre de décès hospitaliers dus à des erreurs d'anesthésie. Cette prise de position conduit à faire évoluer les pratiques d'anesthésie aux Pays-Bas et à réduire le nombre de décès[1]. 
-Retraité en 1992, il commence à écrire des chroniques d'opinion hebdomadaires pour De Telegraaf[1].
-En 2003, il est tête de liste aux élections sénatoriales pour la Liste Pim Fortuyn, mais celle-ci ne remporte aucun siège[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chef anesthésiste au Centre hospitalier universitaire d'Utrecht (1960-1969) et à l'hôpital militaire de la même ville (1960-1971), il devient professeur titulaire en anesthésiologie à l'université d'Utrecht en 1969. Il devient célèbre en 1972 lorsqu'il s'élève publiquement contre le trop grand nombre de décès hospitaliers dus à des erreurs d'anesthésie. Cette prise de position conduit à faire évoluer les pratiques d'anesthésie aux Pays-Bas et à réduire le nombre de décès. 
+Retraité en 1992, il commence à écrire des chroniques d'opinion hebdomadaires pour De Telegraaf.
+En 2003, il est tête de liste aux élections sénatoriales pour la Liste Pim Fortuyn, mais celle-ci ne remporte aucun siège.
 </t>
         </is>
       </c>
